--- a/VB.NET/Import and Export DataTable/Sheet to DataTable/SimpleTemplate.xlsx
+++ b/VB.NET/Import and Export DataTable/Sheet to DataTable/SimpleTemplate.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECHO\Desktop\Reading\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFFB050-7E23-409D-923F-045C2440B1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,12 +403,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -425,14 +438,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -479,7 +501,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,9 +533,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,6 +585,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,21 +778,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1">
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -751,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -768,7 +831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1">
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -785,7 +848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -802,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -819,7 +882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -836,7 +899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -853,7 +916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -870,7 +933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1">
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -887,7 +950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1">
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -904,7 +967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -921,7 +984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1">
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -938,7 +1001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -955,7 +1018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -972,7 +1035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -989,7 +1052,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1006,7 +1069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1023,7 +1086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1040,7 +1103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1057,7 +1120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1074,7 +1137,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1091,7 +1154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1125,7 +1188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1">
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1142,7 +1205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1">
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1159,7 +1222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1">
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1176,7 +1239,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1">
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1193,7 +1256,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1">
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1210,7 +1273,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1">
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1227,7 +1290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1">
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1244,7 +1307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1">
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1261,7 +1324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1278,7 +1341,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1295,7 +1358,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1">
+    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -1312,7 +1375,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1">
+    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1329,7 +1392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1">
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1346,7 +1409,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1">
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -1363,7 +1426,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1">
+    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -1380,7 +1443,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -1397,7 +1460,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -1414,7 +1477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1">
+    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -1431,7 +1494,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1">
+    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -1448,7 +1511,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1">
+    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -1465,7 +1528,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1">
+    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -1482,7 +1545,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1">
+    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -1499,7 +1562,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1">
+    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -1516,7 +1579,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1">
+    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -1533,7 +1596,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="12.75" customHeight="1">
+    <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -1550,7 +1613,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="12.75" customHeight="1">
+    <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -1567,7 +1630,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="12.75" customHeight="1">
+    <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -1584,7 +1647,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="12.75" customHeight="1">
+    <row r="52" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -1601,7 +1664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="12.75" customHeight="1">
+    <row r="53" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -1618,7 +1681,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="12.75" customHeight="1">
+    <row r="54" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -1635,7 +1698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="12.75" customHeight="1">
+    <row r="55" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -1652,7 +1715,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="12.75" customHeight="1">
+    <row r="56" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -1669,7 +1732,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="12.75" customHeight="1">
+    <row r="57" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -1686,7 +1749,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="12.75" customHeight="1">
+    <row r="58" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -1703,7 +1766,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="12.75" customHeight="1">
+    <row r="59" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -1720,7 +1783,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="12.75" customHeight="1">
+    <row r="60" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>110</v>
       </c>
@@ -1737,7 +1800,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="12.75" customHeight="1">
+    <row r="61" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -1754,7 +1817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="12.75" customHeight="1">
+    <row r="62" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>113</v>
       </c>
@@ -1771,7 +1834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="12.75" customHeight="1">
+    <row r="63" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -1788,7 +1851,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="12.75" customHeight="1">
+    <row r="64" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -1805,7 +1868,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="12.75" customHeight="1">
+    <row r="65" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -1822,7 +1885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="12.75" customHeight="1">
+    <row r="66" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -1839,7 +1902,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="12.75" customHeight="1">
+    <row r="67" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -1856,7 +1919,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="12.75" customHeight="1">
+    <row r="68" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>125</v>
       </c>
@@ -1866,7 +1929,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>